--- a/Examples_Templates/input_template.xlsx
+++ b/Examples_Templates/input_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11108"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/panteleimontakis/Library/Mobile Documents/com~apple~CloudDocs/Eggrafa/PROSWPIKA/CVs/Imp/DOSYs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/panteleimontakis/Documents/GitHub/DOSY_Peaks_Picking/Examples_Templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7BEB7EE-3200-9B43-B7E8-BB245731B761}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C39CBC34-90BE-654C-AFE8-454292C0DD95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40" yWindow="720" windowWidth="33600" windowHeight="19600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,15 +36,6 @@
     <t>Metabolites</t>
   </si>
   <si>
-    <t>Max_window</t>
-  </si>
-  <si>
-    <t>Min_window</t>
-  </si>
-  <si>
-    <t>Threshold</t>
-  </si>
-  <si>
     <t>Region1</t>
   </si>
   <si>
@@ -52,6 +43,15 @@
   </si>
   <si>
     <t>Region3</t>
+  </si>
+  <si>
+    <t>Min_window (ppm)</t>
+  </si>
+  <si>
+    <t>Max_window (ppm)</t>
+  </si>
+  <si>
+    <t>Threshold (fitting error)</t>
   </si>
 </sst>
 </file>
@@ -400,15 +400,15 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="161" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.1640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.5" style="3" bestFit="1" customWidth="1"/>
@@ -421,13 +421,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
@@ -437,7 +437,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3">
         <v>2.7</v>
@@ -452,7 +452,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -467,7 +467,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>0.9</v>
